--- a/results/rbf_f/scores_rbf_f.xlsx
+++ b/results/rbf_f/scores_rbf_f.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.518</v>
+        <v>0.3778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5621</v>
+        <v>0.4253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6266</v>
+        <v>0.4318</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5167</v>
+        <v>0.3748</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5496</v>
+        <v>0.4144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6283</v>
+        <v>0.4271</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0252</v>
+        <v>0.0391</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0409</v>
+        <v>0.0621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0258</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5054999999999999</v>
+        <v>0.528</v>
       </c>
       <c r="E5" t="n">
-        <v>0.534</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.534</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5084</v>
+        <v>0.5296</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5354</v>
+        <v>0.5582</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5377999999999999</v>
+        <v>0.5583</v>
       </c>
     </row>
     <row r="7">
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0166</v>
+        <v>0.0235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0172</v>
+        <v>0.0218</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0189</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>83.2525</v>
+        <v>174.0751</v>
       </c>
       <c r="E8" t="n">
-        <v>12.2383</v>
+        <v>13.358</v>
       </c>
       <c r="F8" t="n">
-        <v>66.5313</v>
+        <v>99.0177</v>
       </c>
     </row>
     <row r="9">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.5147</v>
+        <v>1.1379</v>
       </c>
       <c r="E9" t="n">
-        <v>2.099</v>
+        <v>2.3176</v>
       </c>
       <c r="F9" t="n">
-        <v>2.242</v>
+        <v>3.0361</v>
       </c>
     </row>
   </sheetData>

--- a/results/rbf_f/scores_rbf_f.xlsx
+++ b/results/rbf_f/scores_rbf_f.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,7 +414,7 @@
         <v>0.4253</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4318</v>
+        <v>0.4087</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>0.4144</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4271</v>
+        <v>0.3928</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +462,7 @@
         <v>0.0621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0506</v>
+        <v>0.08160000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.528</v>
+        <v>0.3023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5580000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5296</v>
+        <v>0.4821</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5582</v>
+        <v>0.5203</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5583</v>
+        <v>0.5187</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0235</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0218</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0266</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>174.0751</v>
+        <v>0.528</v>
       </c>
       <c r="E8" t="n">
-        <v>13.358</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>99.0177</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5582</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5506</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0235</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0219</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0902</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.06909999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0451</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0464</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.06519999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0303</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.0629</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1417</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1806</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2051</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>165.0429</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.991</v>
+      </c>
+      <c r="F20" t="n">
+        <v>80.1566</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1.1379</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.3176</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.0361</v>
+      <c r="D21" t="n">
+        <v>1.3867</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.5858</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.052</v>
       </c>
     </row>
   </sheetData>

--- a/results/rbf_f/scores_rbf_f.xlsx
+++ b/results/rbf_f/scores_rbf_f.xlsx
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3778</v>
+        <v>0.3897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4253</v>
+        <v>0.4167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4087</v>
+        <v>0.4093</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3748</v>
+        <v>0.3889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4144</v>
+        <v>0.4149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3928</v>
+        <v>0.4079</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0391</v>
+        <v>0.0544</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0621</v>
+        <v>0.0486</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="5">
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3023</v>
+        <v>0.2585</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.2439</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.2759</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4821</v>
+        <v>0.5046</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5203</v>
+        <v>0.52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5187</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="7">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.528</v>
+        <v>0.54</v>
       </c>
       <c r="E8" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.55</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5296</v>
+        <v>0.5382</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5582</v>
+        <v>0.5599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5506</v>
+        <v>0.5552</v>
       </c>
     </row>
     <row r="10">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0235</v>
+        <v>0.0242</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0218</v>
+        <v>0.0251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0227</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="11">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.506</v>
+        <v>0.496</v>
       </c>
       <c r="F11" t="n">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="12">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.59</v>
+        <v>0.596</v>
       </c>
       <c r="E12" t="n">
-        <v>0.608</v>
+        <v>0.63</v>
       </c>
       <c r="F12" t="n">
-        <v>0.614</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="13">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0219</v>
+        <v>0.0377</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0902</v>
+        <v>0.0936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.08069999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0254</v>
+        <v>0.0433</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0847</v>
+        <v>0.0883</v>
       </c>
       <c r="F15" t="n">
-        <v>0.068</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0451</v>
+        <v>0.046</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0445</v>
+        <v>0.0462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0464</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="17">
@@ -780,13 +780,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.06519999999999999</v>
+        <v>-0.0426</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0303</v>
+        <v>-0.0184</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0629</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="18">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1417</v>
+        <v>0.1506</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1806</v>
+        <v>0.1797</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2051</v>
+        <v>0.1809</v>
       </c>
     </row>
     <row r="19">
@@ -858,13 +858,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>165.0429</v>
+        <v>148.0776</v>
       </c>
       <c r="E20" t="n">
-        <v>14.991</v>
+        <v>13.2057</v>
       </c>
       <c r="F20" t="n">
-        <v>80.1566</v>
+        <v>91.9143</v>
       </c>
     </row>
     <row r="21">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.3867</v>
+        <v>1.1756</v>
       </c>
       <c r="E21" t="n">
-        <v>2.5858</v>
+        <v>2.2525</v>
       </c>
       <c r="F21" t="n">
-        <v>3.052</v>
+        <v>2.7728</v>
       </c>
     </row>
   </sheetData>
